--- a/database/phanquyen.xlsx
+++ b/database/phanquyen.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb87d6b024e19af3/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOPTOKYO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{3E8E20F8-17B5-4508-BD5D-196681F1E890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF1138DA-4664-4788-A555-92F564528972}"/>
   <bookViews>
-    <workbookView xWindow="20790" yWindow="5145" windowWidth="14400" windowHeight="10875" xr2:uid="{D10E22B2-F5FD-4ED7-86EF-650131FCCFAB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Quản lý phân quyền</t>
   </si>
@@ -126,13 +118,19 @@
   </si>
   <si>
     <t>cv3</t>
+  </si>
+  <si>
+    <t>Quản lý đặt hàng</t>
+  </si>
+  <si>
+    <t>q13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,13 +141,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,12 +173,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -200,32 +192,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,11 +525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E54B8E-453D-4ABC-8F7B-D7DE1D091DE3}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,23 +539,22 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -575,173 +562,166 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>2</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>31</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>8</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>6</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>10</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>1</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>